--- a/JavaSeleniumPractice/test-data/InterestCalculator.xlsx
+++ b/JavaSeleniumPractice/test-data/InterestCalculator.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skomawar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shivam's Learning\JAVA+Selenium\JavaSeleniumPractice\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C20D1ED-E5F9-4BD9-858F-8709284BDC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3A2808-4395-4C9F-89D2-8CF2D697E0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="20295" windowHeight="10920" xr2:uid="{75482C2D-836F-4DED-9123-93044FD54777}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{75482C2D-836F-4DED-9123-93044FD54777}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Principle</t>
   </si>
@@ -59,26 +59,30 @@
     <t>Result</t>
   </si>
   <si>
-    <t>years(s)</t>
-  </si>
-  <si>
     <t>month(s)</t>
   </si>
   <si>
     <t>Simple Interest</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t>year(s)</t>
+  </si>
+  <si>
+    <t>day(s)</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +90,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +110,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,16 +139,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,137 +516,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011B0FBA-1076-42B2-9860-2D311D73FC3D}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.7109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>20000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
         <v>24000</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>40000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
         <v>70000</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>50000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>51250</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s" s="9">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>75000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>76500</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>75000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>75045.320000000007</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s" s="11">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
